--- a/assets uarm/filrel2018b controles.xlsx
+++ b/assets uarm/filrel2018b controles.xlsx
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1284,11 +1284,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6">
+        <v>0.5</v>
+      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7">
+        <v>1.4</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="2"/>
       <c r="N10" s="7"/>
@@ -1514,11 +1518,15 @@
         <v>0</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>0.5</v>
+      </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="2"/>
       <c r="N15" s="7"/>
@@ -1657,9 +1665,15 @@
       <c r="K18" s="7">
         <v>1</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="7"/>
+      <c r="L18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1.3</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="7"/>

--- a/assets uarm/filrel2018b controles.xlsx
+++ b/assets uarm/filrel2018b controles.xlsx
@@ -788,7 +788,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1144,9 +1144,11 @@
         <v>0.5</v>
       </c>
       <c r="J7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.2</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7"/>
@@ -1674,9 +1676,15 @@
       <c r="N18" s="7">
         <v>1.3</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="7"/>
+      <c r="O18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1.4</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="2"/>
       <c r="T18" s="7"/>

--- a/assets uarm/filrel2018b controles.xlsx
+++ b/assets uarm/filrel2018b controles.xlsx
@@ -140,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -459,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -491,6 +497,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1152,9 +1164,15 @@
       <c r="L7" s="6"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="7"/>
+      <c r="O7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1.4</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="2"/>
       <c r="T7" s="7"/>
@@ -1249,9 +1267,15 @@
       <c r="K9" s="7">
         <v>1.4</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="7"/>
+      <c r="L9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.3</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="7"/>
@@ -1281,11 +1305,15 @@
       <c r="E10" s="7">
         <v>1.4</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>1.4</v>
+      </c>
       <c r="I10" s="6">
         <v>0.5</v>
       </c>
@@ -1295,9 +1323,15 @@
       <c r="K10" s="7">
         <v>1.4</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.3</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="7"/>
@@ -1327,11 +1361,11 @@
       <c r="E11" s="7">
         <v>1.4</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2">
+      <c r="F11" s="25"/>
+      <c r="G11" s="26">
         <v>0</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="6">
         <v>0.5</v>
       </c>
@@ -1373,19 +1407,25 @@
       <c r="E12" s="7">
         <v>1.4</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2">
+      <c r="F12" s="25"/>
+      <c r="G12" s="26">
         <v>0</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="2">
+      <c r="H12" s="27"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26">
         <v>0</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="7"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1.3</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="7"/>
@@ -1515,11 +1555,11 @@
       <c r="E15" s="7">
         <v>1.3</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2">
+      <c r="F15" s="25"/>
+      <c r="G15" s="26">
         <v>0</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="6">
         <v>0.5</v>
       </c>
@@ -1585,9 +1625,15 @@
       <c r="O16" s="6"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="7"/>
+      <c r="R16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1.4</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="2"/>
       <c r="W16" s="7"/>
@@ -1711,11 +1757,15 @@
       <c r="E19" s="7">
         <v>1.5</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>1.4</v>
+      </c>
       <c r="I19" s="6">
         <v>0.5</v>
       </c>
@@ -1725,9 +1775,15 @@
       <c r="K19" s="7">
         <v>1.3</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="7"/>
+      <c r="L19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1.4</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="7"/>
@@ -1766,11 +1822,11 @@
       <c r="H20" s="10">
         <v>1.5</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9">
+      <c r="I20" s="28"/>
+      <c r="J20" s="29">
         <v>0</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="10"/>

--- a/assets uarm/filrel2018b controles.xlsx
+++ b/assets uarm/filrel2018b controles.xlsx
@@ -140,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +159,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -461,11 +467,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -488,6 +505,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,12 +520,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,1061 +821,1158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" customWidth="1"/>
-    <col min="22" max="23" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="8" width="4.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" customWidth="1"/>
+    <col min="23" max="24" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:29">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:30">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="22" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="22" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="11" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1">
+    <row r="3" spans="1:30" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1">
+    <row r="4" spans="1:30" ht="15.75" thickBot="1">
       <c r="A4" s="17">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="R4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="T4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="U4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="V4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="W4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="X4" s="21">
-        <f>SUM(C4:W4)</f>
+      <c r="D4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="21">
+        <f>SUM(D4:X4)</f>
         <v>17.5</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Z4" s="19">
         <v>2.5</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="AA4" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="D5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="15">
         <v>1.3</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.5</v>
-      </c>
       <c r="J5" s="6">
         <v>0.5</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="15">
         <v>1.2</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="12"/>
+      <c r="M5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="S5" s="31"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="16"/>
       <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="7">
         <v>1.4</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.5</v>
+      <c r="G6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.5</v>
       </c>
       <c r="J6" s="6">
         <v>0.5</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="7">
         <v>1.3</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="7">
         <v>1.3</v>
       </c>
-      <c r="I7" s="6">
-        <v>0.5</v>
-      </c>
       <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
         <v>1.2</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
         <v>1.4</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="D8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="7">
         <v>1.3</v>
       </c>
-      <c r="I8" s="6">
-        <v>0.5</v>
-      </c>
       <c r="J8" s="6">
         <v>0.5</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="7">
         <v>1.3</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="M8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="D9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="7">
         <v>1.3</v>
       </c>
-      <c r="I9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
         <v>1.4</v>
       </c>
-      <c r="L9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="M9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
         <v>1.3</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="P9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="7">
         <v>1.4</v>
       </c>
-      <c r="F10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
         <v>1.4</v>
       </c>
-      <c r="I10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
         <v>1.4</v>
       </c>
-      <c r="L10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="M10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
         <v>1.3</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
+      <c r="P10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="V10" s="22"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="7">
         <v>1.4</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="G11" s="22"/>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="7">
         <v>1.2</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="7">
         <v>1.4</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="G12" s="22"/>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="7">
         <v>1.3</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="7">
         <v>1.4</v>
       </c>
-      <c r="F13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.5</v>
+      <c r="G13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.5</v>
       </c>
       <c r="J13" s="6">
         <v>0.5</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="7">
         <v>1.3</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.9</v>
       </c>
-      <c r="F14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="7">
         <v>0.9</v>
       </c>
-      <c r="I14" s="6">
-        <v>0.5</v>
-      </c>
       <c r="J14" s="6">
         <v>0.5</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="7">
         <v>1.2</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="7">
         <v>1.3</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
+      <c r="I15" s="24"/>
       <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
         <v>0.9</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.5</v>
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.5</v>
       </c>
       <c r="J16" s="6">
         <v>0.5</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="7">
         <v>1.3</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T16" s="7">
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="7">
         <v>1.4</v>
       </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="36">
         <v>0.9</v>
       </c>
-      <c r="F18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="36">
         <v>0.8</v>
       </c>
-      <c r="I18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="J18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="36">
         <v>1</v>
       </c>
-      <c r="L18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N18" s="7">
+      <c r="M18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="36">
         <v>1.3</v>
       </c>
-      <c r="O18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="P18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="36">
         <v>1.4</v>
       </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="S18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="U18" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="V18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="X18" s="36">
+        <v>1.2</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="D19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
         <v>1.4</v>
       </c>
-      <c r="I19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="J19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="36">
         <v>1.3</v>
       </c>
-      <c r="L19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N19" s="7">
+      <c r="M19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="36">
         <v>1.4</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="P19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>0</v>
+      </c>
+      <c r="R19" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="S19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="35">
+        <v>0</v>
+      </c>
+      <c r="U19" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="V19" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="X19" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+    <row r="20" spans="1:27" ht="15.75" thickBot="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29">
-        <v>0</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="D20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26">
+        <v>0</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets uarm/filrel2018b controles.xlsx
+++ b/assets uarm/filrel2018b controles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Alumno</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>TOTAL 2</t>
+  </si>
+  <si>
+    <t>Total Final</t>
+  </si>
+  <si>
+    <t>Exposiciones</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -478,27 +490,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -511,6 +525,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,13 +538,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,11 +849,13 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
@@ -844,1125 +871,1411 @@
     <col min="21" max="21" width="4.28515625" customWidth="1"/>
     <col min="22" max="22" width="3.85546875" customWidth="1"/>
     <col min="23" max="24" width="4.42578125" customWidth="1"/>
+    <col min="30" max="30" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:30">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="28" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="28" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="28" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="28" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="11" t="s">
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AB2" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AD3" s="3"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A4" s="17">
-        <v>0</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="10">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="M4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="P4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="S4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="U4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="V4" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="X4" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="Y4" s="21">
+      <c r="D4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="14">
         <f>SUM(D4:X4)</f>
         <v>17.5</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="12">
         <v>2.5</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="13">
         <v>20</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="12">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="D5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="38">
         <v>1.3</v>
       </c>
-      <c r="J5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="J5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="38">
         <v>1.2</v>
       </c>
-      <c r="M5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0</v>
-      </c>
-      <c r="R5" s="15">
+      <c r="M5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="35">
+        <v>0</v>
+      </c>
+      <c r="O5" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>0</v>
+      </c>
+      <c r="R5" s="38">
         <v>1.4</v>
       </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="S5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="35">
+        <v>0</v>
+      </c>
+      <c r="U5" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="V5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>SUM(D5:X5)</f>
+        <v>15</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="8">
+        <f>SUM(Y5:Z5)</f>
+        <v>17</v>
+      </c>
+      <c r="AB5" s="40"/>
+      <c r="AD5" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="30">
         <v>1.4</v>
       </c>
-      <c r="G6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="G6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="30">
         <v>1.3</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="2"/>
+      <c r="M6" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="4">
+        <f>SUM(D6:X6)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>SUM(Y6:Z6)</f>
+        <v>11.2</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="2">
+      <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="D7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="23">
         <v>1.3</v>
       </c>
-      <c r="J7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="J7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
         <v>1.2</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
+      <c r="M7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="P7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23">
         <v>1.4</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="2"/>
+      <c r="S7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X7" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM(D7:X7)</f>
+        <v>14.900000000000002</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>SUM(Y7:Z7)</f>
+        <v>17.400000000000002</v>
+      </c>
+      <c r="AB7" s="40"/>
+      <c r="AD7" s="34" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="D8" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="30">
         <v>1.3</v>
       </c>
-      <c r="J8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="J8" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="30">
         <v>1.3</v>
       </c>
-      <c r="M8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
+      <c r="M8" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="30">
         <v>1.2</v>
       </c>
-      <c r="P8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
+      <c r="P8" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30">
         <v>1.4</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="2"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="4">
+        <f>SUM(D8:X8)</f>
+        <v>10.7</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>SUM(Y8:Z8)</f>
+        <v>12.7</v>
+      </c>
+      <c r="AB8" s="40"/>
+      <c r="AD8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="2">
+      <c r="A9" s="22">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="D9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="23">
         <v>1.3</v>
       </c>
-      <c r="J9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="J9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
         <v>1.4</v>
       </c>
-      <c r="M9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="M9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23">
         <v>1.3</v>
       </c>
-      <c r="P9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="P9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
         <v>1.3</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="2"/>
+      <c r="S9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="V9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM(D9:X9)</f>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>SUM(Y9:Z9)</f>
+        <v>17.700000000000003</v>
+      </c>
+      <c r="AB9" s="40"/>
+      <c r="AD9" s="34" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="2">
+      <c r="A10" s="22">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="23">
         <v>1.4</v>
       </c>
-      <c r="G10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="G10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
         <v>1.4</v>
       </c>
-      <c r="J10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="J10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
         <v>1.4</v>
       </c>
-      <c r="M10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="M10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
         <v>1.3</v>
       </c>
-      <c r="P10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="P10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23">
         <v>1.2</v>
       </c>
-      <c r="S10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="V10" s="22"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="2"/>
+      <c r="S10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0</v>
+      </c>
+      <c r="U10" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="V10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM(D10:X10)</f>
+        <v>14.2</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>SUM(Y10:Z10)</f>
+        <v>16.7</v>
+      </c>
+      <c r="AB10" s="40"/>
+      <c r="AD10" s="34" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="D11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="30">
         <v>1.4</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="G11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="30">
         <v>1.2</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="2"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="29">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM(D11:X11)</f>
+        <v>9.9</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>SUM(Y11:Z11)</f>
+        <v>10.9</v>
+      </c>
+      <c r="AB11" s="40"/>
+      <c r="AD11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="30">
         <v>1.4</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="7">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="30">
         <v>1.3</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="2"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="4">
+        <f>SUM(D12:X12)</f>
+        <v>4.7</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>SUM(Y12:Z12)</f>
+        <v>7.2</v>
+      </c>
+      <c r="AB12" s="40"/>
+      <c r="AD12" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="30">
         <v>1.4</v>
       </c>
-      <c r="G13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="G13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="30">
         <v>1.3</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="2"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="4">
+        <f>SUM(D13:X13)</f>
+        <v>7.2</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>SUM(Y13:Z13)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AB13" s="40"/>
+      <c r="AD13" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="2">
+      <c r="A14" s="22">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="23">
         <v>0.9</v>
       </c>
-      <c r="G14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="23">
         <v>0.9</v>
       </c>
-      <c r="J14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="J14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="23">
         <v>1.2</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="2"/>
+      <c r="M14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="P14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="S14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="22">
+        <v>0</v>
+      </c>
+      <c r="U14" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM(D14:X14)</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>SUM(Y14:Z14)</f>
+        <v>15.100000000000001</v>
+      </c>
+      <c r="AB14" s="40"/>
+      <c r="AD14" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="30">
         <v>1.3</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23">
-        <v>0</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="G15" s="28"/>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
         <v>0.9</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="2"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="4">
+        <f>SUM(D15:X15)</f>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>SUM(Y15:Z15)</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="AB15" s="40"/>
+      <c r="AD15" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="D16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="30">
         <v>1.3</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="7">
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="30">
         <v>1.4</v>
       </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="2"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="4">
+        <f>SUM(D16:X16)</f>
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>SUM(Y16:Z16)</f>
+        <v>12.200000000000001</v>
+      </c>
+      <c r="AB16" s="40"/>
+      <c r="AD16" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="2">
+    <row r="17" spans="1:30">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="2"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="4">
+        <f>SUM(D17:X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>SUM(Y17:Z17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="40"/>
+      <c r="AD17" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="2">
+    <row r="18" spans="1:30">
+      <c r="A18" s="22">
         <v>14</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="36">
+      <c r="D18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="23">
         <v>0.9</v>
       </c>
-      <c r="G18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="36">
+      <c r="G18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="23">
         <v>0.8</v>
       </c>
-      <c r="J18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="36">
+      <c r="J18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="23">
         <v>1</v>
       </c>
-      <c r="M18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N18" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="36">
+      <c r="M18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="23">
         <v>1.3</v>
       </c>
-      <c r="P18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="R18" s="36">
+      <c r="P18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="23">
         <v>1.4</v>
       </c>
-      <c r="S18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="T18" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="U18" s="36">
+      <c r="S18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="U18" s="23">
         <v>0.7</v>
       </c>
-      <c r="V18" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="W18" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="X18" s="36">
+      <c r="V18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X18" s="23">
         <v>1.2</v>
       </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="2"/>
+      <c r="Y18" s="4">
+        <f>SUM(D18:X18)</f>
+        <v>14.299999999999999</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>SUM(Y18:Z18)</f>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="AB18" s="40"/>
+      <c r="AD18" s="34" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="2">
+    <row r="19" spans="1:30">
+      <c r="A19" s="22">
         <v>15</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1.5</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
+      <c r="D19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
         <v>1.4</v>
       </c>
-      <c r="J19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="36">
+      <c r="J19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="23">
         <v>1.3</v>
       </c>
-      <c r="M19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N19" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="O19" s="36">
+      <c r="M19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="23">
         <v>1.4</v>
       </c>
-      <c r="P19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" s="35">
-        <v>0</v>
-      </c>
-      <c r="R19" s="36">
+      <c r="P19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>0</v>
+      </c>
+      <c r="R19" s="23">
         <v>1.3</v>
       </c>
-      <c r="S19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="T19" s="35">
-        <v>0</v>
-      </c>
-      <c r="U19" s="36">
-        <v>1.5</v>
-      </c>
-      <c r="V19" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="W19" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="X19" s="36">
-        <v>1.5</v>
-      </c>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="2"/>
+      <c r="S19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="22">
+        <v>0</v>
+      </c>
+      <c r="U19" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="V19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X19" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="Y19" s="4">
+        <f>SUM(D19:X19)</f>
+        <v>15.4</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>SUM(Y19:Z19)</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AB19" s="40"/>
+      <c r="AD19" s="34" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A20" s="2">
+    <row r="20" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26">
-        <v>0</v>
-      </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="2"/>
+      <c r="D20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="4">
+        <f>SUM(D20:X20)</f>
+        <v>5</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>SUM(Y20:Z20)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AB20" s="40"/>
+      <c r="AD20" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/assets uarm/filrel2018b controles.xlsx
+++ b/assets uarm/filrel2018b controles.xlsx
@@ -503,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -529,15 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -552,6 +543,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +852,7 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -881,41 +884,41 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="25" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="25" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="25" t="s">
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="25" t="s">
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="7" t="s">
         <v>31</v>
       </c>
@@ -925,10 +928,10 @@
       <c r="AA2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="36" t="s">
         <v>35</v>
       </c>
       <c r="AD2" s="3" t="s">
@@ -1079,7 +1082,7 @@
         <v>1.5</v>
       </c>
       <c r="Y4" s="14">
-        <f>SUM(D4:X4)</f>
+        <f t="shared" ref="Y4:Y20" si="0">SUM(D4:X4)</f>
         <v>17.5</v>
       </c>
       <c r="Z4" s="12">
@@ -1093,29 +1096,29 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="35">
+      <c r="A5" s="32">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="38">
+      <c r="D5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="35">
         <v>1.3</v>
       </c>
       <c r="J5" s="21">
@@ -1124,58 +1127,58 @@
       <c r="K5" s="21">
         <v>0.5</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="35">
         <v>1.2</v>
       </c>
-      <c r="M5" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="35">
-        <v>0</v>
-      </c>
-      <c r="O5" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="P5" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="35">
-        <v>0</v>
-      </c>
-      <c r="R5" s="38">
+      <c r="M5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="35">
         <v>1.4</v>
       </c>
-      <c r="S5" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="35">
-        <v>0</v>
-      </c>
-      <c r="U5" s="38">
+      <c r="S5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="32">
+        <v>0</v>
+      </c>
+      <c r="U5" s="35">
         <v>1.4</v>
       </c>
-      <c r="V5" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="38">
+      <c r="V5" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="35">
         <v>1.2</v>
       </c>
       <c r="Y5" s="9">
-        <f>SUM(D5:X5)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Z5" s="8">
         <v>2</v>
       </c>
       <c r="AA5" s="8">
-        <f>SUM(Y5:Z5)</f>
+        <f t="shared" ref="AA5:AA20" si="1">SUM(Y5:Z5)</f>
         <v>17</v>
       </c>
-      <c r="AB5" s="40"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AB5" s="37"/>
+      <c r="AD5" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1187,45 +1190,51 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="D6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="27">
         <v>1.4</v>
       </c>
-      <c r="G6" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="30">
+      <c r="G6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="27">
         <v>1.3</v>
       </c>
-      <c r="M6" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="29">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17"/>
+      <c r="M6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>0</v>
+      </c>
+      <c r="R6" s="44">
+        <v>1</v>
+      </c>
       <c r="S6" s="15"/>
       <c r="T6" s="16"/>
       <c r="U6" s="17"/>
@@ -1233,15 +1242,15 @@
       <c r="W6" s="16"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="4">
-        <f>SUM(D6:X6)</f>
-        <v>9.1999999999999993</v>
+        <f t="shared" si="0"/>
+        <v>10.7</v>
       </c>
       <c r="Z6" s="8">
         <v>2</v>
       </c>
       <c r="AA6" s="1">
-        <f>SUM(Y6:Z6)</f>
-        <v>11.2</v>
+        <f t="shared" si="1"/>
+        <v>12.7</v>
       </c>
       <c r="AD6" s="3" t="s">
         <v>7</v>
@@ -1251,8 +1260,8 @@
       <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="21">
@@ -1319,93 +1328,105 @@
         <v>1.4</v>
       </c>
       <c r="Y7" s="4">
-        <f>SUM(D7:X7)</f>
+        <f t="shared" si="0"/>
         <v>14.900000000000002</v>
       </c>
       <c r="Z7" s="8">
         <v>2.5</v>
       </c>
       <c r="AA7" s="1">
-        <f>SUM(Y7:Z7)</f>
+        <f t="shared" si="1"/>
         <v>17.400000000000002</v>
       </c>
-      <c r="AB7" s="40"/>
-      <c r="AD7" s="34" t="s">
+      <c r="AB7" s="37"/>
+      <c r="AD7" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="1">
+      <c r="A8" s="22">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="D8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="23">
         <v>1.3</v>
       </c>
-      <c r="J8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="30">
+      <c r="J8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="23">
         <v>1.3</v>
       </c>
-      <c r="M8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="29">
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
+      <c r="M8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23">
         <v>1.2</v>
       </c>
-      <c r="P8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="29">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
+      <c r="P8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
         <v>1.4</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="17"/>
+      <c r="S8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="V8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="23">
+        <v>1.3</v>
+      </c>
       <c r="Y8" s="4">
-        <f>SUM(D8:X8)</f>
-        <v>10.7</v>
+        <f t="shared" si="0"/>
+        <v>14.7</v>
       </c>
       <c r="Z8" s="8">
         <v>2</v>
       </c>
       <c r="AA8" s="1">
-        <f>SUM(Y8:Z8)</f>
-        <v>12.7</v>
-      </c>
-      <c r="AB8" s="40"/>
-      <c r="AD8" s="3" t="s">
+        <f t="shared" si="1"/>
+        <v>16.7</v>
+      </c>
+      <c r="AB8" s="37"/>
+      <c r="AD8" s="31" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1413,8 +1434,8 @@
       <c r="A9" s="22">
         <v>5</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="21">
@@ -1481,18 +1502,18 @@
         <v>1.4</v>
       </c>
       <c r="Y9" s="4">
-        <f>SUM(D9:X9)</f>
+        <f t="shared" si="0"/>
         <v>15.200000000000001</v>
       </c>
       <c r="Z9" s="8">
         <v>2.5</v>
       </c>
       <c r="AA9" s="1">
-        <f>SUM(Y9:Z9)</f>
+        <f t="shared" si="1"/>
         <v>17.700000000000003</v>
       </c>
-      <c r="AB9" s="40"/>
-      <c r="AD9" s="34" t="s">
+      <c r="AB9" s="37"/>
+      <c r="AD9" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1500,8 +1521,8 @@
       <c r="A10" s="22">
         <v>6</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="21">
@@ -1568,18 +1589,18 @@
         <v>1.5</v>
       </c>
       <c r="Y10" s="4">
-        <f>SUM(D10:X10)</f>
+        <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
       <c r="Z10" s="8">
         <v>2.5</v>
       </c>
       <c r="AA10" s="1">
-        <f>SUM(Y10:Z10)</f>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-      <c r="AB10" s="40"/>
-      <c r="AD10" s="34" t="s">
+      <c r="AB10" s="37"/>
+      <c r="AD10" s="31" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1591,69 +1612,81 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="D11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="23">
         <v>1.4</v>
       </c>
-      <c r="G11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="G11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
         <v>1.3</v>
       </c>
-      <c r="J11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="30">
+      <c r="J11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="23">
         <v>1.2</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="29">
-        <v>0</v>
-      </c>
-      <c r="U11" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="30">
+      <c r="M11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="P11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="S11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="23">
         <v>1.5</v>
       </c>
       <c r="Y11" s="4">
-        <f>SUM(D11:X11)</f>
-        <v>9.9</v>
+        <f t="shared" si="0"/>
+        <v>13.4</v>
       </c>
       <c r="Z11" s="8">
         <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <f>SUM(Y11:Z11)</f>
-        <v>10.9</v>
-      </c>
-      <c r="AB11" s="40"/>
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
+      <c r="AB11" s="37"/>
       <c r="AD11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1666,28 +1699,34 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="D12" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="27">
         <v>1.4</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>1.4</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="30">
+      <c r="M12" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="44">
         <v>1.3</v>
       </c>
       <c r="P12" s="15"/>
@@ -1700,17 +1739,17 @@
       <c r="W12" s="16"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="4">
-        <f>SUM(D12:X12)</f>
-        <v>4.7</v>
+        <f t="shared" si="0"/>
+        <v>6.6</v>
       </c>
       <c r="Z12" s="8">
         <v>2.5</v>
       </c>
       <c r="AA12" s="1">
-        <f>SUM(Y12:Z12)</f>
-        <v>7.2</v>
-      </c>
-      <c r="AB12" s="40"/>
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="AB12" s="37"/>
       <c r="AD12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1723,36 +1762,36 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="D13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="27">
         <v>1.4</v>
       </c>
-      <c r="G13" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="J13" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="30">
+      <c r="G13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="27">
         <v>1.3</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
@@ -1763,17 +1802,17 @@
       <c r="W13" s="16"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="4">
-        <f>SUM(D13:X13)</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
       <c r="Z13" s="8">
         <v>2.5</v>
       </c>
       <c r="AA13" s="1">
-        <f>SUM(Y13:Z13)</f>
+        <f t="shared" si="1"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB13" s="40"/>
+      <c r="AB13" s="37"/>
       <c r="AD13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1782,8 +1821,8 @@
       <c r="A14" s="22">
         <v>10</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="21">
@@ -1850,18 +1889,18 @@
         <v>1.5</v>
       </c>
       <c r="Y14" s="4">
-        <f>SUM(D14:X14)</f>
+        <f t="shared" si="0"/>
         <v>14.100000000000001</v>
       </c>
       <c r="Z14" s="8">
         <v>1</v>
       </c>
       <c r="AA14" s="1">
-        <f>SUM(Y14:Z14)</f>
+        <f t="shared" si="1"/>
         <v>15.100000000000001</v>
       </c>
-      <c r="AB14" s="40"/>
-      <c r="AD14" s="34" t="s">
+      <c r="AB14" s="37"/>
+      <c r="AD14" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1873,27 +1912,27 @@
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="D15" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="27">
         <v>1.3</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="28">
-        <v>0</v>
-      </c>
-      <c r="L15" s="30">
+      <c r="G15" s="25"/>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27">
         <v>0.9</v>
       </c>
       <c r="M15" s="15"/>
@@ -1909,17 +1948,17 @@
       <c r="W15" s="16"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="4">
-        <f>SUM(D15:X15)</f>
+        <f t="shared" si="0"/>
         <v>3.6999999999999997</v>
       </c>
       <c r="Z15" s="8">
         <v>1</v>
       </c>
       <c r="AA15" s="1">
-        <f>SUM(Y15:Z15)</f>
+        <f t="shared" si="1"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="AB15" s="40"/>
+      <c r="AB15" s="37"/>
       <c r="AD15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1932,31 +1971,31 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="J16" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="30">
+      <c r="D16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="27">
         <v>1.3</v>
       </c>
       <c r="M16" s="15"/>
@@ -1965,30 +2004,30 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="T16" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="30">
+      <c r="S16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="27">
         <v>1.4</v>
       </c>
       <c r="V16" s="15"/>
       <c r="W16" s="16"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="4">
-        <f>SUM(D16:X16)</f>
+        <f t="shared" si="0"/>
         <v>9.7000000000000011</v>
       </c>
       <c r="Z16" s="8">
         <v>2.5</v>
       </c>
       <c r="AA16" s="1">
-        <f>SUM(Y16:Z16)</f>
+        <f t="shared" si="1"/>
         <v>12.200000000000001</v>
       </c>
-      <c r="AB16" s="40"/>
+      <c r="AB16" s="37"/>
       <c r="AD16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2029,17 +2068,17 @@
       <c r="W17" s="16"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="4">
-        <f>SUM(D17:X17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z17" s="8">
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <f>SUM(Y17:Z17)</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="40"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="37"/>
       <c r="AD17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2048,8 +2087,8 @@
       <c r="A18" s="22">
         <v>14</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="21">
@@ -2116,18 +2155,18 @@
         <v>1.2</v>
       </c>
       <c r="Y18" s="4">
-        <f>SUM(D18:X18)</f>
+        <f t="shared" si="0"/>
         <v>14.299999999999999</v>
       </c>
       <c r="Z18" s="8">
         <v>2.5</v>
       </c>
       <c r="AA18" s="1">
-        <f>SUM(Y18:Z18)</f>
+        <f t="shared" si="1"/>
         <v>16.799999999999997</v>
       </c>
-      <c r="AB18" s="40"/>
-      <c r="AD18" s="34" t="s">
+      <c r="AB18" s="37"/>
+      <c r="AD18" s="31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2135,8 +2174,8 @@
       <c r="A19" s="22">
         <v>15</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="21">
@@ -2203,18 +2242,18 @@
         <v>1.5</v>
       </c>
       <c r="Y19" s="4">
-        <f>SUM(D19:X19)</f>
+        <f t="shared" si="0"/>
         <v>15.4</v>
       </c>
       <c r="Z19" s="8">
         <v>2.5</v>
       </c>
       <c r="AA19" s="1">
-        <f>SUM(Y19:Z19)</f>
+        <f t="shared" si="1"/>
         <v>17.899999999999999</v>
       </c>
-      <c r="AB19" s="40"/>
-      <c r="AD19" s="34" t="s">
+      <c r="AB19" s="37"/>
+      <c r="AD19" s="31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2226,22 +2265,22 @@
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="G20" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="33">
+      <c r="D20" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="30">
         <v>1.5</v>
       </c>
       <c r="J20" s="18"/>
@@ -2262,17 +2301,17 @@
       <c r="W20" s="19"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="4">
-        <f>SUM(D20:X20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Z20" s="8">
         <v>2.5</v>
       </c>
       <c r="AA20" s="1">
-        <f>SUM(Y20:Z20)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="AB20" s="40"/>
+      <c r="AB20" s="37"/>
       <c r="AD20" s="3" t="s">
         <v>21</v>
       </c>

--- a/assets uarm/filrel2018b controles.xlsx
+++ b/assets uarm/filrel2018b controles.xlsx
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,18 +156,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -519,30 +507,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,9 +525,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -884,41 +860,41 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="39" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="39" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="39" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="39" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="41"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
       <c r="Y2" s="7" t="s">
         <v>31</v>
       </c>
@@ -928,10 +904,10 @@
       <c r="AA2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AB2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="22" t="s">
         <v>35</v>
       </c>
       <c r="AD2" s="3" t="s">
@@ -1014,7 +990,7 @@
       <c r="A4" s="10">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1096,74 +1072,74 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="32">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="35">
-        <v>1.3</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="35">
+      <c r="D5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="30">
         <v>1.2</v>
       </c>
-      <c r="M5" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="32">
-        <v>0</v>
-      </c>
-      <c r="O5" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="P5" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>0</v>
-      </c>
-      <c r="R5" s="35">
+      <c r="M5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="27">
+        <v>0</v>
+      </c>
+      <c r="O5" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
         <v>1.4</v>
       </c>
-      <c r="S5" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="32">
-        <v>0</v>
-      </c>
-      <c r="U5" s="35">
+      <c r="S5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="27">
+        <v>0</v>
+      </c>
+      <c r="U5" s="30">
         <v>1.4</v>
       </c>
-      <c r="V5" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="35">
+      <c r="V5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="30">
         <v>1.2</v>
       </c>
       <c r="Y5" s="9">
@@ -1177,154 +1153,166 @@
         <f t="shared" ref="AA5:AA20" si="1">SUM(Y5:Z5)</f>
         <v>17</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AB5" s="23"/>
+      <c r="AD5" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="1">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="D6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="18">
         <v>1.4</v>
       </c>
-      <c r="G6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="M6" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="O6" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>0</v>
-      </c>
-      <c r="R6" s="44">
+      <c r="G6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
         <v>1</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="17"/>
+      <c r="S6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="17">
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1.3</v>
+      </c>
       <c r="Y6" s="4">
         <f t="shared" si="0"/>
-        <v>10.7</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="8">
         <v>2</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="1"/>
-        <v>12.7</v>
-      </c>
-      <c r="AD6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="22">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
+      <c r="D7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
         <v>1.2</v>
       </c>
-      <c r="M7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="P7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>0</v>
-      </c>
-      <c r="R7" s="23">
+      <c r="M7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
         <v>1.4</v>
       </c>
-      <c r="S7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="V7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X7" s="23">
+      <c r="S7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X7" s="18">
         <v>1.4</v>
       </c>
       <c r="Y7" s="4">
@@ -1338,80 +1326,80 @@
         <f t="shared" si="1"/>
         <v>17.400000000000002</v>
       </c>
-      <c r="AB7" s="37"/>
+      <c r="AB7" s="23"/>
       <c r="AD7" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="22">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="23">
+      <c r="D8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
         <v>1.2</v>
       </c>
-      <c r="P8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>0</v>
-      </c>
-      <c r="R8" s="23">
+      <c r="P8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
         <v>1.4</v>
       </c>
-      <c r="S8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T8" s="22">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23">
+      <c r="S8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
         <v>1.2</v>
       </c>
-      <c r="V8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W8" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X8" s="23">
+      <c r="V8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="18">
         <v>1.3</v>
       </c>
       <c r="Y8" s="4">
@@ -1425,80 +1413,80 @@
         <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-      <c r="AB8" s="37"/>
+      <c r="AB8" s="23"/>
       <c r="AD8" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="22">
+      <c r="A9" s="17">
         <v>5</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
+      <c r="D9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
         <v>1.4</v>
       </c>
-      <c r="M9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="P9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>0</v>
-      </c>
-      <c r="R9" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="S9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="U9" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="V9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W9" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X9" s="23">
+      <c r="M9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="18">
         <v>1.4</v>
       </c>
       <c r="Y9" s="4">
@@ -1512,80 +1500,80 @@
         <f t="shared" si="1"/>
         <v>17.700000000000003</v>
       </c>
-      <c r="AB9" s="37"/>
+      <c r="AB9" s="23"/>
       <c r="AD9" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="22">
+      <c r="A10" s="17">
         <v>6</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="D10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="18">
         <v>1.4</v>
       </c>
-      <c r="G10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23">
+      <c r="G10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
         <v>1.4</v>
       </c>
-      <c r="J10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
+      <c r="J10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
         <v>1.4</v>
       </c>
-      <c r="M10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="P10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0</v>
-      </c>
-      <c r="R10" s="23">
+      <c r="M10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
         <v>1.2</v>
       </c>
-      <c r="S10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="22">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="V10" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W10" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X10" s="23">
+      <c r="S10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="17">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="18">
         <v>1.5</v>
       </c>
       <c r="Y10" s="4">
@@ -1599,80 +1587,80 @@
         <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-      <c r="AB10" s="37"/>
+      <c r="AB10" s="23"/>
       <c r="AD10" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="1">
+      <c r="A11" s="17">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="D11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="18">
         <v>1.4</v>
       </c>
-      <c r="G11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="23">
+      <c r="G11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="18">
         <v>1.2</v>
       </c>
-      <c r="M11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-      <c r="O11" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="P11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>0</v>
-      </c>
-      <c r="R11" s="23">
+      <c r="M11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
         <v>1.2</v>
       </c>
-      <c r="S11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="22">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="23">
+      <c r="S11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="17">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="18">
         <v>1.5</v>
       </c>
       <c r="Y11" s="4">
@@ -1686,121 +1674,145 @@
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="AB11" s="37"/>
-      <c r="AD11" s="3" t="s">
+      <c r="AB11" s="23"/>
+      <c r="AD11" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="1">
+      <c r="A12" s="17">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="D12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="18">
         <v>1.4</v>
       </c>
-      <c r="G12" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="43">
-        <v>0</v>
-      </c>
-      <c r="I12" s="44">
+      <c r="G12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
         <v>1.4</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="44">
-        <v>1.3</v>
-      </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="17"/>
+      <c r="J12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="17">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="17">
+        <v>0</v>
+      </c>
+      <c r="X12" s="18">
+        <v>1.2</v>
+      </c>
       <c r="Y12" s="4">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="Z12" s="8">
         <v>2.5</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="1"/>
-        <v>9.1</v>
-      </c>
-      <c r="AB12" s="37"/>
-      <c r="AD12" s="3" t="s">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AB12" s="23"/>
+      <c r="AD12" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="1">
+      <c r="A13" s="17">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="27">
+      <c r="D13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="18">
         <v>1.4</v>
       </c>
-      <c r="G13" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="17"/>
+      <c r="G13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
       <c r="Y13" s="4">
         <f t="shared" si="0"/>
         <v>7.2</v>
@@ -1812,80 +1824,80 @@
         <f t="shared" si="1"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB13" s="37"/>
-      <c r="AD13" s="3" t="s">
+      <c r="AB13" s="23"/>
+      <c r="AD13" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="22">
+      <c r="A14" s="17">
         <v>10</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="D14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="18">
         <v>0.9</v>
       </c>
-      <c r="G14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="G14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="18">
         <v>0.9</v>
       </c>
-      <c r="J14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="23">
+      <c r="J14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="18">
         <v>1.2</v>
       </c>
-      <c r="M14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="23">
+      <c r="M14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
         <v>1.4</v>
       </c>
-      <c r="P14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>0</v>
-      </c>
-      <c r="R14" s="23">
+      <c r="P14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
         <v>1.4</v>
       </c>
-      <c r="S14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T14" s="22">
-        <v>0</v>
-      </c>
-      <c r="U14" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="V14" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W14" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X14" s="23">
+      <c r="S14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="18">
         <v>1.5</v>
       </c>
       <c r="Y14" s="4">
@@ -1899,54 +1911,54 @@
         <f t="shared" si="1"/>
         <v>15.100000000000001</v>
       </c>
-      <c r="AB14" s="37"/>
+      <c r="AB14" s="23"/>
       <c r="AD14" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="1">
+      <c r="A15" s="17">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26">
-        <v>0</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="25">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27">
+      <c r="D15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
         <v>0.9</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="17"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="18"/>
       <c r="Y15" s="4">
         <f t="shared" si="0"/>
         <v>3.6999999999999997</v>
@@ -1958,64 +1970,64 @@
         <f t="shared" si="1"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="AB15" s="37"/>
-      <c r="AD15" s="3" t="s">
+      <c r="AB15" s="23"/>
+      <c r="AD15" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="1">
+      <c r="A16" s="17">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="J16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="T16" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="27">
+      <c r="D16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="18">
         <v>1.4</v>
       </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="17"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="18"/>
       <c r="Y16" s="4">
         <f t="shared" si="0"/>
         <v>9.7000000000000011</v>
@@ -2027,46 +2039,46 @@
         <f t="shared" si="1"/>
         <v>12.200000000000001</v>
       </c>
-      <c r="AB16" s="37"/>
-      <c r="AD16" s="3" t="s">
+      <c r="AB16" s="23"/>
+      <c r="AD16" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="1">
+      <c r="A17" s="17">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16">
-        <v>0</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="18"/>
       <c r="Y17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2078,80 +2090,80 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="37"/>
-      <c r="AD17" s="3" t="s">
+      <c r="AB17" s="23"/>
+      <c r="AD17" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="22">
+      <c r="A18" s="17">
         <v>14</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="23">
+      <c r="D18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="18">
         <v>0.9</v>
       </c>
-      <c r="G18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="23">
+      <c r="G18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="18">
         <v>0.8</v>
       </c>
-      <c r="J18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="23">
+      <c r="J18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="18">
         <v>1</v>
       </c>
-      <c r="M18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="P18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="R18" s="23">
+      <c r="M18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="18">
         <v>1.4</v>
       </c>
-      <c r="S18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="U18" s="23">
+      <c r="S18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="U18" s="18">
         <v>0.7</v>
       </c>
-      <c r="V18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X18" s="23">
+      <c r="V18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X18" s="18">
         <v>1.2</v>
       </c>
       <c r="Y18" s="4">
@@ -2165,80 +2177,80 @@
         <f t="shared" si="1"/>
         <v>16.799999999999997</v>
       </c>
-      <c r="AB18" s="37"/>
+      <c r="AB18" s="23"/>
       <c r="AD18" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="22">
+      <c r="A19" s="17">
         <v>15</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="G19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23">
+      <c r="D19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
         <v>1.4</v>
       </c>
-      <c r="J19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="M19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N19" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="O19" s="23">
+      <c r="J19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="18">
         <v>1.4</v>
       </c>
-      <c r="P19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>0</v>
-      </c>
-      <c r="R19" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="S19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="T19" s="22">
-        <v>0</v>
-      </c>
-      <c r="U19" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="V19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="W19" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X19" s="23">
+      <c r="P19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>0</v>
+      </c>
+      <c r="R19" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X19" s="18">
         <v>1.5</v>
       </c>
       <c r="Y19" s="4">
@@ -2252,69 +2264,90 @@
         <f t="shared" si="1"/>
         <v>17.899999999999999</v>
       </c>
-      <c r="AB19" s="37"/>
+      <c r="AB19" s="23"/>
       <c r="AD19" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A20" s="1">
+      <c r="A20" s="17">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="20"/>
+      <c r="D20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="S20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="T20" s="20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="V20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="W20" s="20">
+        <v>0</v>
+      </c>
+      <c r="X20" s="21">
+        <v>1.4</v>
+      </c>
       <c r="Y20" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="Z20" s="8">
         <v>2.5</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="AB20" s="37"/>
-      <c r="AD20" s="3" t="s">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="AB20" s="23"/>
+      <c r="AD20" s="31" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="AD21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
